--- a/mercados/flujos_nr.xlsx
+++ b/mercados/flujos_nr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="97">
   <si>
     <t>Fecha</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>T122</t>
+  </si>
+  <si>
+    <t>T222</t>
   </si>
   <si>
     <t>31/03</t>
@@ -663,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,10 +700,10 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2">
         <v>38442</v>
@@ -717,10 +720,10 @@
         <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2">
         <v>38533</v>
@@ -737,10 +740,10 @@
         <v>526</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2">
         <v>38625</v>
@@ -757,10 +760,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2">
         <v>38717</v>
@@ -777,10 +780,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2">
         <v>38807</v>
@@ -797,10 +800,10 @@
         <v>-30</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2">
         <v>38898</v>
@@ -817,10 +820,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2">
         <v>38990</v>
@@ -837,10 +840,10 @@
         <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2">
         <v>39082</v>
@@ -857,10 +860,10 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" s="2">
         <v>39172</v>
@@ -877,10 +880,10 @@
         <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2">
         <v>39263</v>
@@ -897,10 +900,10 @@
         <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2">
         <v>39355</v>
@@ -917,10 +920,10 @@
         <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2">
         <v>39447</v>
@@ -937,10 +940,10 @@
         <v>656</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2">
         <v>39538</v>
@@ -957,10 +960,10 @@
         <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2">
         <v>39629</v>
@@ -977,10 +980,10 @@
         <v>-399</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2">
         <v>39721</v>
@@ -997,10 +1000,10 @@
         <v>-366</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="2">
         <v>39813</v>
@@ -1017,10 +1020,10 @@
         <v>-189</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="2">
         <v>39903</v>
@@ -1037,10 +1040,10 @@
         <v>-131</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" s="2">
         <v>39994</v>
@@ -1057,10 +1060,10 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2">
         <v>40086</v>
@@ -1077,10 +1080,10 @@
         <v>-60</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F21" s="2">
         <v>40178</v>
@@ -1097,10 +1100,10 @@
         <v>-160</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="2">
         <v>40268</v>
@@ -1117,10 +1120,10 @@
         <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2">
         <v>40359</v>
@@ -1137,10 +1140,10 @@
         <v>1034</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2">
         <v>40451</v>
@@ -1157,10 +1160,10 @@
         <v>1622</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2">
         <v>40543</v>
@@ -1177,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F26" s="2">
         <v>40633</v>
@@ -1197,10 +1200,10 @@
         <v>-4</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F27" s="2">
         <v>40724</v>
@@ -1217,10 +1220,10 @@
         <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2">
         <v>40816</v>
@@ -1237,10 +1240,10 @@
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="2">
         <v>40908</v>
@@ -1257,10 +1260,10 @@
         <v>896</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="2">
         <v>40999</v>
@@ -1277,10 +1280,10 @@
         <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F31" s="2">
         <v>41090</v>
@@ -1297,10 +1300,10 @@
         <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32" s="2">
         <v>41182</v>
@@ -1317,10 +1320,10 @@
         <v>301</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F33" s="2">
         <v>41274</v>
@@ -1337,10 +1340,10 @@
         <v>573</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F34" s="2">
         <v>41364</v>
@@ -1357,10 +1360,10 @@
         <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F35" s="2">
         <v>41455</v>
@@ -1377,10 +1380,10 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2">
         <v>41547</v>
@@ -1397,10 +1400,10 @@
         <v>-608</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2">
         <v>41639</v>
@@ -1417,10 +1420,10 @@
         <v>-604</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2">
         <v>41729</v>
@@ -1437,10 +1440,10 @@
         <v>-289</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F39" s="2">
         <v>41820</v>
@@ -1457,10 +1460,10 @@
         <v>-280</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="2">
         <v>41912</v>
@@ -1477,10 +1480,10 @@
         <v>515</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2">
         <v>42004</v>
@@ -1497,10 +1500,10 @@
         <v>544</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2">
         <v>42094</v>
@@ -1517,10 +1520,10 @@
         <v>-263</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2">
         <v>42185</v>
@@ -1537,10 +1540,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" s="2">
         <v>42277</v>
@@ -1557,10 +1560,10 @@
         <v>-71</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" s="2">
         <v>42369</v>
@@ -1577,10 +1580,10 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2">
         <v>42460</v>
@@ -1597,10 +1600,10 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F47" s="2">
         <v>42551</v>
@@ -1617,10 +1620,10 @@
         <v>914</v>
       </c>
       <c r="D48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F48" s="2">
         <v>42643</v>
@@ -1637,10 +1640,10 @@
         <v>956</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F49" s="2">
         <v>42735</v>
@@ -1657,10 +1660,10 @@
         <v>1146</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F50" s="2">
         <v>42825</v>
@@ -1677,10 +1680,10 @@
         <v>1145</v>
       </c>
       <c r="D51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F51" s="2">
         <v>42916</v>
@@ -1697,10 +1700,10 @@
         <v>2742</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F52" s="2">
         <v>43008</v>
@@ -1717,10 +1720,10 @@
         <v>-479</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F53" s="2">
         <v>43100</v>
@@ -1737,10 +1740,10 @@
         <v>-1371</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F54" s="2">
         <v>43190</v>
@@ -1757,10 +1760,10 @@
         <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" s="2">
         <v>43281</v>
@@ -1777,10 +1780,10 @@
         <v>1192</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F56" s="2">
         <v>43373</v>
@@ -1797,10 +1800,10 @@
         <v>1786</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F57" s="2">
         <v>43465</v>
@@ -1817,10 +1820,10 @@
         <v>3033</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F58" s="2">
         <v>43555</v>
@@ -1837,10 +1840,10 @@
         <v>1733</v>
       </c>
       <c r="D59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F59" s="2">
         <v>43646</v>
@@ -1857,10 +1860,10 @@
         <v>-1032</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2">
         <v>43738</v>
@@ -1877,10 +1880,10 @@
         <v>455</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2">
         <v>43830</v>
@@ -1897,10 +1900,10 @@
         <v>683</v>
       </c>
       <c r="D62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F62" s="2">
         <v>43921</v>
@@ -1917,10 +1920,10 @@
         <v>221</v>
       </c>
       <c r="D63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2">
         <v>44012</v>
@@ -1937,10 +1940,10 @@
         <v>1093</v>
       </c>
       <c r="D64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E64" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2">
         <v>44104</v>
@@ -1957,10 +1960,10 @@
         <v>-433</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2">
         <v>44196</v>
@@ -1977,10 +1980,10 @@
         <v>-918</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2">
         <v>44286</v>
@@ -1997,10 +2000,10 @@
         <v>-987</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2">
         <v>44377</v>
@@ -2017,10 +2020,10 @@
         <v>1715</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2">
         <v>44469</v>
@@ -2037,10 +2040,10 @@
         <v>-127</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F69" s="2">
         <v>44561</v>
@@ -2057,13 +2060,33 @@
         <v>-406</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2">
         <v>44651</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>-225</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="2">
+        <v>44742</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/flujos_nr.xlsx
+++ b/mercados/flujos_nr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
   <si>
     <t>Fecha</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>T222</t>
+  </si>
+  <si>
+    <t>T322</t>
   </si>
   <si>
     <t>31/03</t>
@@ -666,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,10 +703,10 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2">
         <v>38442</v>
@@ -720,10 +723,10 @@
         <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2">
         <v>38533</v>
@@ -740,10 +743,10 @@
         <v>526</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2">
         <v>38625</v>
@@ -760,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2">
         <v>38717</v>
@@ -780,10 +783,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" s="2">
         <v>38807</v>
@@ -800,10 +803,10 @@
         <v>-30</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F7" s="2">
         <v>38898</v>
@@ -820,10 +823,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2">
         <v>38990</v>
@@ -840,10 +843,10 @@
         <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2">
         <v>39082</v>
@@ -860,10 +863,10 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2">
         <v>39172</v>
@@ -880,10 +883,10 @@
         <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2">
         <v>39263</v>
@@ -900,10 +903,10 @@
         <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2">
         <v>39355</v>
@@ -920,10 +923,10 @@
         <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2">
         <v>39447</v>
@@ -940,10 +943,10 @@
         <v>656</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2">
         <v>39538</v>
@@ -960,10 +963,10 @@
         <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2">
         <v>39629</v>
@@ -980,10 +983,10 @@
         <v>-399</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="2">
         <v>39721</v>
@@ -1000,10 +1003,10 @@
         <v>-366</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2">
         <v>39813</v>
@@ -1020,10 +1023,10 @@
         <v>-189</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="2">
         <v>39903</v>
@@ -1040,10 +1043,10 @@
         <v>-131</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2">
         <v>39994</v>
@@ -1060,10 +1063,10 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2">
         <v>40086</v>
@@ -1080,10 +1083,10 @@
         <v>-60</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="2">
         <v>40178</v>
@@ -1100,10 +1103,10 @@
         <v>-160</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F22" s="2">
         <v>40268</v>
@@ -1120,10 +1123,10 @@
         <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2">
         <v>40359</v>
@@ -1140,10 +1143,10 @@
         <v>1034</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2">
         <v>40451</v>
@@ -1160,10 +1163,10 @@
         <v>1622</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2">
         <v>40543</v>
@@ -1180,10 +1183,10 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26" s="2">
         <v>40633</v>
@@ -1200,10 +1203,10 @@
         <v>-4</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F27" s="2">
         <v>40724</v>
@@ -1220,10 +1223,10 @@
         <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" s="2">
         <v>40816</v>
@@ -1240,10 +1243,10 @@
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" s="2">
         <v>40908</v>
@@ -1260,10 +1263,10 @@
         <v>896</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F30" s="2">
         <v>40999</v>
@@ -1280,10 +1283,10 @@
         <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F31" s="2">
         <v>41090</v>
@@ -1300,10 +1303,10 @@
         <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F32" s="2">
         <v>41182</v>
@@ -1320,10 +1323,10 @@
         <v>301</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F33" s="2">
         <v>41274</v>
@@ -1340,10 +1343,10 @@
         <v>573</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="2">
         <v>41364</v>
@@ -1360,10 +1363,10 @@
         <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F35" s="2">
         <v>41455</v>
@@ -1380,10 +1383,10 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F36" s="2">
         <v>41547</v>
@@ -1400,10 +1403,10 @@
         <v>-608</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2">
         <v>41639</v>
@@ -1420,10 +1423,10 @@
         <v>-604</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2">
         <v>41729</v>
@@ -1440,10 +1443,10 @@
         <v>-289</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="2">
         <v>41820</v>
@@ -1460,10 +1463,10 @@
         <v>-280</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F40" s="2">
         <v>41912</v>
@@ -1480,10 +1483,10 @@
         <v>515</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2">
         <v>42004</v>
@@ -1500,10 +1503,10 @@
         <v>544</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2">
         <v>42094</v>
@@ -1520,10 +1523,10 @@
         <v>-263</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2">
         <v>42185</v>
@@ -1540,10 +1543,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2">
         <v>42277</v>
@@ -1560,10 +1563,10 @@
         <v>-71</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F45" s="2">
         <v>42369</v>
@@ -1580,10 +1583,10 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F46" s="2">
         <v>42460</v>
@@ -1600,10 +1603,10 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F47" s="2">
         <v>42551</v>
@@ -1620,10 +1623,10 @@
         <v>914</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F48" s="2">
         <v>42643</v>
@@ -1640,10 +1643,10 @@
         <v>956</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F49" s="2">
         <v>42735</v>
@@ -1660,10 +1663,10 @@
         <v>1146</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F50" s="2">
         <v>42825</v>
@@ -1680,10 +1683,10 @@
         <v>1145</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F51" s="2">
         <v>42916</v>
@@ -1700,10 +1703,10 @@
         <v>2742</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F52" s="2">
         <v>43008</v>
@@ -1720,10 +1723,10 @@
         <v>-479</v>
       </c>
       <c r="D53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F53" s="2">
         <v>43100</v>
@@ -1740,10 +1743,10 @@
         <v>-1371</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F54" s="2">
         <v>43190</v>
@@ -1760,10 +1763,10 @@
         <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F55" s="2">
         <v>43281</v>
@@ -1780,10 +1783,10 @@
         <v>1192</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F56" s="2">
         <v>43373</v>
@@ -1800,10 +1803,10 @@
         <v>1786</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F57" s="2">
         <v>43465</v>
@@ -1820,10 +1823,10 @@
         <v>3033</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F58" s="2">
         <v>43555</v>
@@ -1840,10 +1843,10 @@
         <v>1733</v>
       </c>
       <c r="D59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F59" s="2">
         <v>43646</v>
@@ -1860,10 +1863,10 @@
         <v>-1032</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F60" s="2">
         <v>43738</v>
@@ -1880,10 +1883,10 @@
         <v>455</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F61" s="2">
         <v>43830</v>
@@ -1900,10 +1903,10 @@
         <v>683</v>
       </c>
       <c r="D62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2">
         <v>43921</v>
@@ -1920,10 +1923,10 @@
         <v>221</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2">
         <v>44012</v>
@@ -1940,10 +1943,10 @@
         <v>1093</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F64" s="2">
         <v>44104</v>
@@ -1960,10 +1963,10 @@
         <v>-433</v>
       </c>
       <c r="D65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2">
         <v>44196</v>
@@ -1980,10 +1983,10 @@
         <v>-918</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2">
         <v>44286</v>
@@ -2000,10 +2003,10 @@
         <v>-987</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2">
         <v>44377</v>
@@ -2020,10 +2023,10 @@
         <v>1715</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2">
         <v>44469</v>
@@ -2040,10 +2043,10 @@
         <v>-127</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2">
         <v>44561</v>
@@ -2060,10 +2063,10 @@
         <v>-406</v>
       </c>
       <c r="D70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F70" s="2">
         <v>44651</v>
@@ -2080,13 +2083,33 @@
         <v>-225</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2">
         <v>44742</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>-588</v>
+      </c>
+      <c r="D72" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="2">
+        <v>44834</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/flujos_nr.xlsx
+++ b/mercados/flujos_nr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
   <si>
     <t>Fecha</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>T322</t>
+  </si>
+  <si>
+    <t>T422</t>
   </si>
   <si>
     <t>31/03</t>
@@ -669,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +706,10 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="2">
         <v>38442</v>
@@ -723,10 +726,10 @@
         <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2">
         <v>38533</v>
@@ -743,10 +746,10 @@
         <v>526</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" s="2">
         <v>38625</v>
@@ -763,10 +766,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" s="2">
         <v>38717</v>
@@ -783,10 +786,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6" s="2">
         <v>38807</v>
@@ -803,10 +806,10 @@
         <v>-30</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2">
         <v>38898</v>
@@ -823,10 +826,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2">
         <v>38990</v>
@@ -843,10 +846,10 @@
         <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2">
         <v>39082</v>
@@ -863,10 +866,10 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F10" s="2">
         <v>39172</v>
@@ -883,10 +886,10 @@
         <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" s="2">
         <v>39263</v>
@@ -903,10 +906,10 @@
         <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2">
         <v>39355</v>
@@ -923,10 +926,10 @@
         <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2">
         <v>39447</v>
@@ -943,10 +946,10 @@
         <v>656</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2">
         <v>39538</v>
@@ -963,10 +966,10 @@
         <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2">
         <v>39629</v>
@@ -983,10 +986,10 @@
         <v>-399</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2">
         <v>39721</v>
@@ -1003,10 +1006,10 @@
         <v>-366</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2">
         <v>39813</v>
@@ -1023,10 +1026,10 @@
         <v>-189</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="2">
         <v>39903</v>
@@ -1043,10 +1046,10 @@
         <v>-131</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2">
         <v>39994</v>
@@ -1063,10 +1066,10 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2">
         <v>40086</v>
@@ -1083,10 +1086,10 @@
         <v>-60</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="2">
         <v>40178</v>
@@ -1103,10 +1106,10 @@
         <v>-160</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2">
         <v>40268</v>
@@ -1123,10 +1126,10 @@
         <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="2">
         <v>40359</v>
@@ -1143,10 +1146,10 @@
         <v>1034</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F24" s="2">
         <v>40451</v>
@@ -1163,10 +1166,10 @@
         <v>1622</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="2">
         <v>40543</v>
@@ -1183,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2">
         <v>40633</v>
@@ -1203,10 +1206,10 @@
         <v>-4</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" s="2">
         <v>40724</v>
@@ -1223,10 +1226,10 @@
         <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2">
         <v>40816</v>
@@ -1243,10 +1246,10 @@
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" s="2">
         <v>40908</v>
@@ -1263,10 +1266,10 @@
         <v>896</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" s="2">
         <v>40999</v>
@@ -1283,10 +1286,10 @@
         <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F31" s="2">
         <v>41090</v>
@@ -1303,10 +1306,10 @@
         <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F32" s="2">
         <v>41182</v>
@@ -1323,10 +1326,10 @@
         <v>301</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F33" s="2">
         <v>41274</v>
@@ -1343,10 +1346,10 @@
         <v>573</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F34" s="2">
         <v>41364</v>
@@ -1363,10 +1366,10 @@
         <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F35" s="2">
         <v>41455</v>
@@ -1383,10 +1386,10 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F36" s="2">
         <v>41547</v>
@@ -1403,10 +1406,10 @@
         <v>-608</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2">
         <v>41639</v>
@@ -1423,10 +1426,10 @@
         <v>-604</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2">
         <v>41729</v>
@@ -1443,10 +1446,10 @@
         <v>-289</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F39" s="2">
         <v>41820</v>
@@ -1463,10 +1466,10 @@
         <v>-280</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2">
         <v>41912</v>
@@ -1483,10 +1486,10 @@
         <v>515</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2">
         <v>42004</v>
@@ -1503,10 +1506,10 @@
         <v>544</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F42" s="2">
         <v>42094</v>
@@ -1523,10 +1526,10 @@
         <v>-263</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2">
         <v>42185</v>
@@ -1543,10 +1546,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2">
         <v>42277</v>
@@ -1563,10 +1566,10 @@
         <v>-71</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2">
         <v>42369</v>
@@ -1583,10 +1586,10 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F46" s="2">
         <v>42460</v>
@@ -1603,10 +1606,10 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F47" s="2">
         <v>42551</v>
@@ -1623,10 +1626,10 @@
         <v>914</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F48" s="2">
         <v>42643</v>
@@ -1643,10 +1646,10 @@
         <v>956</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F49" s="2">
         <v>42735</v>
@@ -1663,10 +1666,10 @@
         <v>1146</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2">
         <v>42825</v>
@@ -1683,10 +1686,10 @@
         <v>1145</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2">
         <v>42916</v>
@@ -1703,10 +1706,10 @@
         <v>2742</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F52" s="2">
         <v>43008</v>
@@ -1723,10 +1726,10 @@
         <v>-479</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2">
         <v>43100</v>
@@ -1743,10 +1746,10 @@
         <v>-1371</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2">
         <v>43190</v>
@@ -1763,10 +1766,10 @@
         <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F55" s="2">
         <v>43281</v>
@@ -1783,10 +1786,10 @@
         <v>1192</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F56" s="2">
         <v>43373</v>
@@ -1803,10 +1806,10 @@
         <v>1786</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F57" s="2">
         <v>43465</v>
@@ -1823,10 +1826,10 @@
         <v>3033</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F58" s="2">
         <v>43555</v>
@@ -1843,10 +1846,10 @@
         <v>1733</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F59" s="2">
         <v>43646</v>
@@ -1863,10 +1866,10 @@
         <v>-1032</v>
       </c>
       <c r="D60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F60" s="2">
         <v>43738</v>
@@ -1883,10 +1886,10 @@
         <v>455</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F61" s="2">
         <v>43830</v>
@@ -1903,10 +1906,10 @@
         <v>683</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F62" s="2">
         <v>43921</v>
@@ -1923,10 +1926,10 @@
         <v>221</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F63" s="2">
         <v>44012</v>
@@ -1943,10 +1946,10 @@
         <v>1093</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F64" s="2">
         <v>44104</v>
@@ -1963,10 +1966,10 @@
         <v>-433</v>
       </c>
       <c r="D65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2">
         <v>44196</v>
@@ -1983,10 +1986,10 @@
         <v>-918</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2">
         <v>44286</v>
@@ -2003,10 +2006,10 @@
         <v>-987</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2">
         <v>44377</v>
@@ -2023,10 +2026,10 @@
         <v>1715</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2">
         <v>44469</v>
@@ -2043,10 +2046,10 @@
         <v>-127</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E69" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2">
         <v>44561</v>
@@ -2063,10 +2066,10 @@
         <v>-406</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2">
         <v>44651</v>
@@ -2083,10 +2086,10 @@
         <v>-225</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2">
         <v>44742</v>
@@ -2103,13 +2106,33 @@
         <v>-588</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2">
         <v>44834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73">
+        <v>-669</v>
+      </c>
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="2">
+        <v>44926</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/flujos_nr.xlsx
+++ b/mercados/flujos_nr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="101">
   <si>
     <t>Fecha</t>
   </si>
@@ -247,6 +247,9 @@
     <t>T422</t>
   </si>
   <si>
+    <t>T123</t>
+  </si>
+  <si>
     <t>31/03</t>
   </si>
   <si>
@@ -311,6 +314,9 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -672,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,10 +712,10 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="2">
         <v>38442</v>
@@ -726,10 +732,10 @@
         <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" s="2">
         <v>38533</v>
@@ -746,10 +752,10 @@
         <v>526</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" s="2">
         <v>38625</v>
@@ -766,10 +772,10 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2">
         <v>38717</v>
@@ -786,10 +792,10 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" s="2">
         <v>38807</v>
@@ -806,10 +812,10 @@
         <v>-30</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F7" s="2">
         <v>38898</v>
@@ -826,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="2">
         <v>38990</v>
@@ -846,10 +852,10 @@
         <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2">
         <v>39082</v>
@@ -866,10 +872,10 @@
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2">
         <v>39172</v>
@@ -886,10 +892,10 @@
         <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="2">
         <v>39263</v>
@@ -906,10 +912,10 @@
         <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2">
         <v>39355</v>
@@ -926,10 +932,10 @@
         <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2">
         <v>39447</v>
@@ -946,10 +952,10 @@
         <v>656</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2">
         <v>39538</v>
@@ -966,10 +972,10 @@
         <v>196</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2">
         <v>39629</v>
@@ -986,10 +992,10 @@
         <v>-399</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2">
         <v>39721</v>
@@ -1006,10 +1012,10 @@
         <v>-366</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2">
         <v>39813</v>
@@ -1026,10 +1032,10 @@
         <v>-189</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" s="2">
         <v>39903</v>
@@ -1046,10 +1052,10 @@
         <v>-131</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F19" s="2">
         <v>39994</v>
@@ -1066,10 +1072,10 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" s="2">
         <v>40086</v>
@@ -1086,10 +1092,10 @@
         <v>-60</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2">
         <v>40178</v>
@@ -1106,10 +1112,10 @@
         <v>-160</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2">
         <v>40268</v>
@@ -1126,10 +1132,10 @@
         <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2">
         <v>40359</v>
@@ -1146,10 +1152,10 @@
         <v>1034</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F24" s="2">
         <v>40451</v>
@@ -1166,10 +1172,10 @@
         <v>1622</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2">
         <v>40543</v>
@@ -1186,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" s="2">
         <v>40633</v>
@@ -1206,10 +1212,10 @@
         <v>-4</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F27" s="2">
         <v>40724</v>
@@ -1226,10 +1232,10 @@
         <v>294</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28" s="2">
         <v>40816</v>
@@ -1246,10 +1252,10 @@
         <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" s="2">
         <v>40908</v>
@@ -1266,10 +1272,10 @@
         <v>896</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" s="2">
         <v>40999</v>
@@ -1286,10 +1292,10 @@
         <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" s="2">
         <v>41090</v>
@@ -1306,10 +1312,10 @@
         <v>157</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F32" s="2">
         <v>41182</v>
@@ -1326,10 +1332,10 @@
         <v>301</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F33" s="2">
         <v>41274</v>
@@ -1346,10 +1352,10 @@
         <v>573</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F34" s="2">
         <v>41364</v>
@@ -1366,10 +1372,10 @@
         <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F35" s="2">
         <v>41455</v>
@@ -1386,10 +1392,10 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" s="2">
         <v>41547</v>
@@ -1406,10 +1412,10 @@
         <v>-608</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37" s="2">
         <v>41639</v>
@@ -1426,10 +1432,10 @@
         <v>-604</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2">
         <v>41729</v>
@@ -1446,10 +1452,10 @@
         <v>-289</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2">
         <v>41820</v>
@@ -1466,10 +1472,10 @@
         <v>-280</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="2">
         <v>41912</v>
@@ -1486,10 +1492,10 @@
         <v>515</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2">
         <v>42004</v>
@@ -1506,10 +1512,10 @@
         <v>544</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="2">
         <v>42094</v>
@@ -1526,10 +1532,10 @@
         <v>-263</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2">
         <v>42185</v>
@@ -1546,10 +1552,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2">
         <v>42277</v>
@@ -1566,10 +1572,10 @@
         <v>-71</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2">
         <v>42369</v>
@@ -1586,10 +1592,10 @@
         <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" s="2">
         <v>42460</v>
@@ -1606,10 +1612,10 @@
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F47" s="2">
         <v>42551</v>
@@ -1626,10 +1632,10 @@
         <v>914</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F48" s="2">
         <v>42643</v>
@@ -1646,10 +1652,10 @@
         <v>956</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F49" s="2">
         <v>42735</v>
@@ -1666,10 +1672,10 @@
         <v>1146</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F50" s="2">
         <v>42825</v>
@@ -1686,10 +1692,10 @@
         <v>1145</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F51" s="2">
         <v>42916</v>
@@ -1706,10 +1712,10 @@
         <v>2742</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2">
         <v>43008</v>
@@ -1726,10 +1732,10 @@
         <v>-479</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F53" s="2">
         <v>43100</v>
@@ -1746,10 +1752,10 @@
         <v>-1371</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F54" s="2">
         <v>43190</v>
@@ -1766,10 +1772,10 @@
         <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F55" s="2">
         <v>43281</v>
@@ -1786,10 +1792,10 @@
         <v>1192</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F56" s="2">
         <v>43373</v>
@@ -1806,10 +1812,10 @@
         <v>1786</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F57" s="2">
         <v>43465</v>
@@ -1826,10 +1832,10 @@
         <v>3033</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F58" s="2">
         <v>43555</v>
@@ -1846,10 +1852,10 @@
         <v>1733</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F59" s="2">
         <v>43646</v>
@@ -1866,10 +1872,10 @@
         <v>-1032</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F60" s="2">
         <v>43738</v>
@@ -1886,10 +1892,10 @@
         <v>455</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F61" s="2">
         <v>43830</v>
@@ -1906,10 +1912,10 @@
         <v>683</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F62" s="2">
         <v>43921</v>
@@ -1926,10 +1932,10 @@
         <v>221</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2">
         <v>44012</v>
@@ -1946,10 +1952,10 @@
         <v>1093</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2">
         <v>44104</v>
@@ -1966,10 +1972,10 @@
         <v>-433</v>
       </c>
       <c r="D65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2">
         <v>44196</v>
@@ -1986,10 +1992,10 @@
         <v>-918</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2">
         <v>44286</v>
@@ -2006,10 +2012,10 @@
         <v>-987</v>
       </c>
       <c r="D67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2">
         <v>44377</v>
@@ -2026,10 +2032,10 @@
         <v>1715</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F68" s="2">
         <v>44469</v>
@@ -2046,10 +2052,10 @@
         <v>-127</v>
       </c>
       <c r="D69" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F69" s="2">
         <v>44561</v>
@@ -2066,10 +2072,10 @@
         <v>-406</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2">
         <v>44651</v>
@@ -2086,10 +2092,10 @@
         <v>-225</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2">
         <v>44742</v>
@@ -2106,10 +2112,10 @@
         <v>-588</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2">
         <v>44834</v>
@@ -2126,13 +2132,33 @@
         <v>-669</v>
       </c>
       <c r="D73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F73" s="2">
         <v>44926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74">
+        <v>-614</v>
+      </c>
+      <c r="D74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45016</v>
       </c>
     </row>
   </sheetData>
